--- a/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
+++ b/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_work\01_OtherProjects\material-shop\parser\web-parser-core\src\main\resources\conf\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B18D4-3B52-41C9-9ABF-9710E339BC4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FA71C-1ADD-4D5C-9E4D-A9DC72409731}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="456" yWindow="4692" windowWidth="23196" windowHeight="4512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>${table_input}</t>
   </si>
   <si>
     <t>Продукция магазина</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>pics</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -113,11 +128,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,7 +474,7 @@
   <dimension ref="C3:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -477,7 +492,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:26" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
@@ -490,7 +505,7 @@
       <c r="K3" s="8"/>
     </row>
     <row r="5" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -517,11 +532,21 @@
     </row>
     <row r="6" spans="3:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>

--- a/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
+++ b/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_work\01_OtherProjects\material-shop\parser\web-parser-core\src\main\resources\conf\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FA71C-1ADD-4D5C-9E4D-A9DC72409731}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CDF082-FF36-45A0-BB13-2EF68874E2FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="456" yWindow="4692" windowWidth="23196" windowHeight="4512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${table_input}</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <dimension ref="C3:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -547,11 +556,17 @@
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="3:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>

--- a/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
+++ b/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_work\01_OtherProjects\material-shop\parser\web-parser-core\src\main\resources\conf\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CDF082-FF36-45A0-BB13-2EF68874E2FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E04006-4939-4694-AE15-25FB1900FE1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="456" yWindow="4692" windowWidth="23196" windowHeight="4512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,13 +134,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +483,7 @@
   <dimension ref="C3:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -501,28 +501,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:26" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="5" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -570,7 +570,7 @@
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>

--- a/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
+++ b/parser/web-parser-core/src/main/resources/conf/test/product_registry_tpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_work\01_OtherProjects\material-shop\parser\web-parser-core\src\main\resources\conf\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_work\05_GitProjects\material-shop\parser\web-parser-core\src\main\resources\conf\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E04006-4939-4694-AE15-25FB1900FE1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CEBF49-225A-4C2C-B97A-6860F89FF60E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="4692" windowWidth="23196" windowHeight="4512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="4695" windowWidth="23190" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statement" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>${table_input}</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>video</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -139,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,24 +486,24 @@
   <dimension ref="C3:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="1.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="1" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:26" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
@@ -513,7 +516,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="5" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -539,8 +542,10 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="3:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+    <row r="6" spans="3:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,11 +571,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="3:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
